--- a/更新表格信息.xlsx
+++ b/更新表格信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\日常\关于老赵\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6627BA02-50AA-493B-9BC4-99AFEBF7C704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76194624-9415-4AC2-B5E8-CD9DF58412F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="633" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
   <si>
     <t>单位体积（m3）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,6 +251,21 @@
   </si>
   <si>
     <t>辆数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供应量</t>
+  </si>
+  <si>
+    <t>物资4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆类型1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,7 +533,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -582,6 +597,9 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -605,13 +623,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>698833</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>51001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1158,10 +1176,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8820268-1B3C-4163-A9FC-928C0B3DD06A}">
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20:K23"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -2036,7 +2054,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:14" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2044,331 +2062,472 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A30" s="6" t="s">
+    </row>
+    <row r="30" spans="1:14" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A30" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A31" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B31" s="20">
+        <v>1800</v>
+      </c>
+      <c r="C31" s="20">
+        <v>480</v>
+      </c>
+      <c r="D31" s="20">
+        <v>1000</v>
+      </c>
+      <c r="E31" s="20">
+        <v>500</v>
+      </c>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:14" ht="29.7" x14ac:dyDescent="0.5">
+      <c r="A32" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="21">
+        <v>13.5</v>
+      </c>
+      <c r="C32" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="D32" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="E32" s="21">
+        <v>2.6</v>
+      </c>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A33" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="22">
+        <v>2</v>
+      </c>
+      <c r="C33" s="22">
+        <v>3</v>
+      </c>
+      <c r="D33" s="22">
+        <v>3</v>
+      </c>
+      <c r="E33" s="22">
+        <v>2</v>
+      </c>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A35" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E35" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A36" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="22">
+        <v>8400</v>
+      </c>
+      <c r="C36" s="22">
+        <v>1800</v>
+      </c>
+      <c r="D36" s="22">
+        <v>3200</v>
+      </c>
+      <c r="E36" s="22">
+        <v>8860</v>
+      </c>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A39" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B39" s="7">
         <v>0</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C39" s="7">
         <v>1</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D39" s="7">
         <v>2</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E39" s="8">
         <v>3</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F39" s="8">
         <v>4</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G39" s="8">
         <v>5</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H39" s="8">
         <v>6</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I39" s="8">
         <v>7</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J39" s="9">
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A31" s="10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A40" s="10">
         <v>0</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B40" s="11">
         <v>0</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C40" s="11">
         <v>40</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D40" s="11">
         <v>60</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E40" s="11">
         <v>75</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F40" s="11">
         <v>90</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G40" s="11">
         <v>200</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H40" s="11">
         <v>100</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I40" s="11">
         <v>160</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J40" s="12">
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A32" s="10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A41" s="10">
         <v>1</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B41" s="13">
         <v>40</v>
       </c>
-      <c r="C32" s="13">
+      <c r="C41" s="13">
         <v>0</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D41" s="13">
         <v>65</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E41" s="13">
         <v>40</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F41" s="13">
         <v>100</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G41" s="13">
         <v>100</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H41" s="13">
         <v>75</v>
       </c>
-      <c r="I32" s="13">
+      <c r="I41" s="13">
         <v>110</v>
       </c>
-      <c r="J32" s="14">
+      <c r="J41" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A33" s="10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A42" s="10">
         <v>2</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B42" s="13">
         <v>60</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C42" s="13">
         <v>65</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D42" s="13">
         <v>0</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E42" s="13">
         <v>75</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F42" s="13">
         <v>100</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G42" s="13">
         <v>100</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H42" s="13">
         <v>75</v>
       </c>
-      <c r="I33" s="13">
+      <c r="I42" s="13">
         <v>75</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J42" s="14">
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A34" s="10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A43" s="10">
         <v>3</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B43" s="13">
         <v>75</v>
       </c>
-      <c r="C34" s="13">
+      <c r="C43" s="13">
         <v>40</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D43" s="13">
         <v>75</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E43" s="13">
         <v>0</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F43" s="13">
         <v>100</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G43" s="13">
         <v>50</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H43" s="13">
         <v>90</v>
       </c>
-      <c r="I34" s="13">
+      <c r="I43" s="13">
         <v>90</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J43" s="14">
         <v>150</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A35" s="10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A44" s="10">
         <v>4</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B44" s="13">
         <v>90</v>
       </c>
-      <c r="C35" s="13">
+      <c r="C44" s="13">
         <v>100</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D44" s="13">
         <v>100</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E44" s="13">
         <v>100</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F44" s="13">
         <v>0</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G44" s="13">
         <v>100</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H44" s="13">
         <v>75</v>
       </c>
-      <c r="I35" s="13">
+      <c r="I44" s="13">
         <v>75</v>
       </c>
-      <c r="J35" s="14">
+      <c r="J44" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A36" s="10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A45" s="10">
         <v>5</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B45" s="13">
         <v>200</v>
       </c>
-      <c r="C36" s="13">
+      <c r="C45" s="13">
         <v>100</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D45" s="13">
         <v>100</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E45" s="13">
         <v>50</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F45" s="13">
         <v>100</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G45" s="13">
         <v>0</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H45" s="13">
         <v>70</v>
       </c>
-      <c r="I36" s="13">
+      <c r="I45" s="13">
         <v>90</v>
       </c>
-      <c r="J36" s="14">
+      <c r="J45" s="14">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A37" s="10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A46" s="10">
         <v>6</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B46" s="13">
         <v>100</v>
       </c>
-      <c r="C37" s="13">
+      <c r="C46" s="13">
         <v>75</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D46" s="13">
         <v>75</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E46" s="13">
         <v>90</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F46" s="13">
         <v>75</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G46" s="13">
         <v>70</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H46" s="13">
         <v>0</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I46" s="13">
         <v>70</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J46" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A38" s="10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A47" s="10">
         <v>7</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B47" s="13">
         <v>160</v>
       </c>
-      <c r="C38" s="13">
+      <c r="C47" s="13">
         <v>110</v>
       </c>
-      <c r="D38" s="13">
+      <c r="D47" s="13">
         <v>75</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E47" s="13">
         <v>90</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F47" s="13">
         <v>75</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G47" s="13">
         <v>90</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H47" s="13">
         <v>70</v>
       </c>
-      <c r="I38" s="13">
+      <c r="I47" s="13">
         <v>0</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J47" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="15">
+    <row r="48" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="15">
         <v>8</v>
       </c>
-      <c r="B39" s="16">
+      <c r="B48" s="16">
         <v>80</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C48" s="16">
         <v>100</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D48" s="16">
         <v>75</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E48" s="16">
         <v>150</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F48" s="16">
         <v>100</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G48" s="16">
         <v>100</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H48" s="16">
         <v>100</v>
       </c>
-      <c r="I39" s="16">
+      <c r="I48" s="16">
         <v>100</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J48" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="6.55" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="50" ht="6.55" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/更新表格信息.xlsx
+++ b/更新表格信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\日常\关于老赵\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\code\wuzifenpei\wuzifenpei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76194624-9415-4AC2-B5E8-CD9DF58412F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{715A1C5A-08E3-4E80-B9EA-D86059716FD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="633" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
   <si>
     <t>单位体积（m3）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -266,6 +266,14 @@
   </si>
   <si>
     <t>车辆类型1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物资5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车型E</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -529,11 +537,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -600,6 +619,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -623,13 +643,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>69850</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>698833</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>51001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1176,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8820268-1B3C-4163-A9FC-928C0B3DD06A}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" x14ac:dyDescent="0.5"/>
@@ -1382,126 +1402,126 @@
       <c r="N5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.5">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="D6" s="3">
+        <v>600</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2">
+        <v>1.08</v>
+      </c>
       <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="H6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="K6" s="3">
+        <v>80</v>
+      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2">
+        <v>1.08</v>
+      </c>
       <c r="N6" s="4"/>
     </row>
     <row r="7" spans="1:14" ht="15" x14ac:dyDescent="0.5">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
     <row r="8" spans="1:14" ht="15" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C8" s="5">
-        <v>1.7000000000000001E-4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>1120</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2">
-        <v>1.01</v>
+        <v>9</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J8" s="5">
-        <v>1.7000000000000001E-4</v>
-      </c>
-      <c r="K8" s="3">
-        <v>1320</v>
-      </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2">
-        <v>1.01</v>
+        <v>13</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="N8" s="4"/>
     </row>
     <row r="9" spans="1:14" ht="15" x14ac:dyDescent="0.5">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="5">
-        <v>0.28000000000000003</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C9" s="5">
-        <v>2.3E-3</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D9" s="3">
-        <v>190</v>
+        <v>1120</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2">
-        <v>1.2</v>
+        <v>1.01</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" s="5">
-        <v>0.28000000000000003</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J9" s="5">
-        <v>2.3E-3</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="K9" s="3">
-        <v>180</v>
+        <v>1320</v>
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2">
@@ -1511,233 +1531,233 @@
     </row>
     <row r="10" spans="1:14" ht="15" x14ac:dyDescent="0.5">
       <c r="A10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>8.3000000000000004E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C10" s="5">
-        <v>1.5E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="D10" s="3">
-        <v>760</v>
+        <v>190</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I10" s="5">
-        <v>8.3000000000000004E-2</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J10" s="5">
-        <v>1.5E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="K10" s="3">
-        <v>410</v>
+        <v>180</v>
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="N10" s="4"/>
     </row>
     <row r="11" spans="1:14" ht="15" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>0.5</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="C11" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="D11" s="3">
-        <v>1180</v>
+        <v>760</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I11" s="5">
-        <v>0.5</v>
+        <v>8.3000000000000004E-2</v>
       </c>
       <c r="J11" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>1.5E-3</v>
       </c>
       <c r="K11" s="3">
-        <v>1800</v>
+        <v>410</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.5">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C12" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1180</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J12" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1800</v>
+      </c>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2">
         <v>1.3</v>
       </c>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="15" x14ac:dyDescent="0.5">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
     <row r="13" spans="1:14" ht="15" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="D13" s="3">
+        <v>200</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2">
+        <v>1.8</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>4</v>
+        <v>33</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="K13" s="3">
+        <v>400</v>
+      </c>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2">
+        <v>1.2</v>
       </c>
       <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:14" ht="15" x14ac:dyDescent="0.5">
-      <c r="A14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" s="5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="C14" s="5">
-        <v>1.7000000000000001E-4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>1190</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2">
-        <v>1.21</v>
-      </c>
+      <c r="A14" s="4"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="5">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1.7000000000000001E-4</v>
-      </c>
-      <c r="K14" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2">
-        <v>1.01</v>
-      </c>
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
       <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" ht="15" x14ac:dyDescent="0.5">
       <c r="A15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2.3E-3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>170</v>
-      </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2">
-        <v>1.3</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="G15" s="4"/>
       <c r="H15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J15" s="5">
-        <v>2.3E-3</v>
-      </c>
-      <c r="K15" s="3">
-        <v>250</v>
-      </c>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2">
-        <v>1.02</v>
+        <v>14</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="N15" s="4"/>
     </row>
     <row r="16" spans="1:14" ht="15" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B16" s="5">
-        <v>8.3000000000000004E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C16" s="5">
-        <v>1.5E-3</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D16" s="3">
-        <v>640</v>
+        <v>1190</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2">
-        <v>1.03</v>
+        <v>1.21</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I16" s="5">
-        <v>8.3000000000000004E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J16" s="5">
-        <v>1.5E-3</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="K16" s="3">
-        <v>480</v>
+        <v>2200</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2">
@@ -1747,33 +1767,33 @@
     </row>
     <row r="17" spans="1:14" ht="15" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B17" s="5">
-        <v>0.5</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="C17" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="D17" s="3">
-        <v>1160</v>
+        <v>170</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2">
-        <v>1.05</v>
+        <v>1.3</v>
       </c>
       <c r="G17" s="4"/>
       <c r="H17" s="2" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I17" s="5">
-        <v>0.5</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J17" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>2.3E-3</v>
       </c>
       <c r="K17" s="3">
-        <v>1660</v>
+        <v>250</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2">
@@ -1782,420 +1802,527 @@
       <c r="N17" s="4"/>
     </row>
     <row r="18" spans="1:14" ht="15" x14ac:dyDescent="0.5">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C18" s="5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D18" s="3">
+        <v>640</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>1.03</v>
+      </c>
       <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="K18" s="3">
+        <v>480</v>
+      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2">
+        <v>1.01</v>
+      </c>
       <c r="N18" s="4"/>
     </row>
     <row r="19" spans="1:14" ht="15" x14ac:dyDescent="0.5">
       <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C19" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1160</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>1.05</v>
       </c>
       <c r="G19" s="4"/>
       <c r="H19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J19" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1660</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2">
+        <v>1.02</v>
       </c>
       <c r="N19" s="4"/>
     </row>
     <row r="20" spans="1:14" ht="15" x14ac:dyDescent="0.5">
       <c r="A20" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="B20" s="5">
-        <v>8.0000000000000002E-3</v>
+        <v>0.1</v>
       </c>
       <c r="C20" s="5">
-        <v>1.7000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="D20" s="3">
-        <v>1290</v>
+        <v>300</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2">
-        <v>1.02</v>
+        <v>1.2</v>
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="I20" s="5">
-        <v>8.0000000000000002E-3</v>
+        <v>0.1</v>
       </c>
       <c r="J20" s="5">
-        <v>1.7000000000000001E-4</v>
+        <v>1E-3</v>
       </c>
       <c r="K20" s="3">
-        <v>1280</v>
+        <v>600</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N20" s="4"/>
     </row>
     <row r="21" spans="1:14" ht="15" x14ac:dyDescent="0.5">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="C21" s="5">
-        <v>2.3E-3</v>
-      </c>
-      <c r="D21" s="3">
-        <v>140</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2">
-        <v>1.03</v>
-      </c>
+      <c r="A21" s="4"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
       <c r="G21" s="4"/>
-      <c r="H21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J21" s="5">
-        <v>2.3E-3</v>
-      </c>
-      <c r="K21" s="3">
-        <v>270</v>
-      </c>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2">
-        <v>1.03</v>
-      </c>
+      <c r="H21" s="4"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
       <c r="N21" s="4"/>
     </row>
     <row r="22" spans="1:14" ht="15" x14ac:dyDescent="0.5">
       <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" s="5">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="C22" s="5">
-        <v>1.5E-3</v>
-      </c>
-      <c r="D22" s="3">
-        <v>370</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2">
-        <v>1</v>
+        <v>11</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="5">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="J22" s="5">
-        <v>1.5E-3</v>
-      </c>
-      <c r="K22" s="3">
-        <v>320</v>
-      </c>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2">
-        <v>1.04</v>
+        <v>15</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="4"/>
     </row>
     <row r="23" spans="1:14" ht="15" x14ac:dyDescent="0.5">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B23" s="5">
-        <v>0.5</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C23" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="D23" s="3">
-        <v>2200</v>
+        <v>1290</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2">
-        <v>1.2</v>
+        <v>1.02</v>
       </c>
       <c r="G23" s="4"/>
       <c r="H23" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I23" s="5">
-        <v>0.5</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="J23" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="K23" s="3">
-        <v>850</v>
+        <v>1280</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="N23" s="4"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" x14ac:dyDescent="0.5">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C24" s="5">
+        <v>2.3E-3</v>
+      </c>
+      <c r="D24" s="3">
+        <v>140</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I24" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J24" s="5">
+        <v>2.3E-3</v>
+      </c>
+      <c r="K24" s="3">
+        <v>270</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2">
+        <v>1.03</v>
+      </c>
+      <c r="N24" s="4"/>
+    </row>
+    <row r="25" spans="1:14" ht="15" x14ac:dyDescent="0.5">
+      <c r="A25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="D25" s="3">
+        <v>370</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2">
+        <v>1</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="5">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="J25" s="5">
+        <v>1.5E-3</v>
+      </c>
+      <c r="K25" s="3">
+        <v>320</v>
+      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2">
+        <v>1.04</v>
+      </c>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:14" ht="15" x14ac:dyDescent="0.5">
+      <c r="A26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="C26" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="D26" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2">
         <v>1.2</v>
       </c>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14" ht="51.55" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="18" t="s">
+      <c r="G26" s="4"/>
+      <c r="H26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I26" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="5">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K26" s="3">
+        <v>850</v>
+      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" ht="15" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="D27" s="3">
+        <v>300</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="J27" s="5">
+        <v>1E-3</v>
+      </c>
+      <c r="K27" s="3">
+        <v>800</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="N27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" ht="51.55" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" ht="23.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B29" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C29" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D29" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E25" s="18" t="s">
+      <c r="E29" s="18" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A26" s="19" t="s">
+      <c r="F29" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A30" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="20">
+      <c r="B30" s="20">
         <v>1800</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C30" s="20">
         <v>480</v>
       </c>
-      <c r="D26" s="20">
+      <c r="D30" s="20">
         <v>1000</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E30" s="20">
         <v>500</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="18" t="s">
+      <c r="F30" s="20">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="25.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B27" s="21">
+      <c r="B31" s="21">
         <v>13.5</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C31" s="21">
         <v>3.6</v>
       </c>
-      <c r="D27" s="21">
+      <c r="D31" s="21">
         <v>4.5</v>
       </c>
-      <c r="E27" s="21">
+      <c r="E31" s="21">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A28" s="22" t="s">
+      <c r="F31" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.5">
+      <c r="A32" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B32" s="22">
         <v>1</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C32" s="22">
         <v>3</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D32" s="22">
         <v>2</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E32" s="22">
         <v>2</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A30" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" ht="14.7" x14ac:dyDescent="0.5">
-      <c r="A31" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B31" s="20">
-        <v>1800</v>
-      </c>
-      <c r="C31" s="20">
-        <v>480</v>
-      </c>
-      <c r="D31" s="20">
-        <v>1000</v>
-      </c>
-      <c r="E31" s="20">
-        <v>500</v>
-      </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" ht="29.7" x14ac:dyDescent="0.5">
-      <c r="A32" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="21">
-        <v>13.5</v>
-      </c>
-      <c r="C32" s="21">
-        <v>3.6</v>
-      </c>
-      <c r="D32" s="21">
-        <v>4.5</v>
-      </c>
-      <c r="E32" s="21">
-        <v>2.6</v>
-      </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="22">
+        <v>2</v>
+      </c>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A33" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="22">
-        <v>2</v>
-      </c>
-      <c r="C33" s="22">
-        <v>3</v>
-      </c>
-      <c r="D33" s="22">
-        <v>3</v>
-      </c>
-      <c r="E33" s="22">
-        <v>2</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+    <row r="34" spans="1:10" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A34" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A35" s="22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F35" s="1"/>
+    <row r="35" spans="1:10" ht="14.7" x14ac:dyDescent="0.5">
+      <c r="A35" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="20">
+        <v>1800</v>
+      </c>
+      <c r="C35" s="20">
+        <v>480</v>
+      </c>
+      <c r="D35" s="20">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="20">
+        <v>500</v>
+      </c>
+      <c r="F35" s="20">
+        <v>500</v>
+      </c>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A36" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="22">
-        <v>8400</v>
-      </c>
-      <c r="C36" s="22">
-        <v>1800</v>
-      </c>
-      <c r="D36" s="22">
-        <v>3200</v>
-      </c>
-      <c r="E36" s="22">
-        <v>8860</v>
-      </c>
-      <c r="F36" s="1"/>
+    <row r="36" spans="1:10" ht="29.7" x14ac:dyDescent="0.5">
+      <c r="A36" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="21">
+        <v>13.5</v>
+      </c>
+      <c r="C36" s="21">
+        <v>3.6</v>
+      </c>
+      <c r="D36" s="21">
+        <v>4.5</v>
+      </c>
+      <c r="E36" s="21">
+        <v>2.6</v>
+      </c>
+      <c r="F36" s="21">
+        <v>3</v>
+      </c>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="A37" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="22">
+        <v>2</v>
+      </c>
+      <c r="C37" s="22">
+        <v>3</v>
+      </c>
+      <c r="D37" s="22">
+        <v>3</v>
+      </c>
+      <c r="E37" s="22">
+        <v>2</v>
+      </c>
+      <c r="F37" s="22">
+        <v>2</v>
+      </c>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2203,331 +2330,391 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E39" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A40" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="22">
+        <v>8400</v>
+      </c>
+      <c r="C40" s="22">
+        <v>1800</v>
+      </c>
+      <c r="D40" s="22">
+        <v>3200</v>
+      </c>
+      <c r="E40" s="22">
+        <v>8860</v>
+      </c>
+      <c r="F40" s="24">
+        <v>3500</v>
+      </c>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A43" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B43" s="7">
         <v>0</v>
       </c>
-      <c r="C39" s="7">
+      <c r="C43" s="7">
         <v>1</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D43" s="7">
         <v>2</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E43" s="8">
         <v>3</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F43" s="8">
         <v>4</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G43" s="8">
         <v>5</v>
       </c>
-      <c r="H39" s="8">
+      <c r="H43" s="8">
         <v>6</v>
       </c>
-      <c r="I39" s="8">
+      <c r="I43" s="8">
         <v>7</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J43" s="9">
         <v>8</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A40" s="10">
-        <v>0</v>
-      </c>
-      <c r="B40" s="11">
-        <v>0</v>
-      </c>
-      <c r="C40" s="11">
-        <v>40</v>
-      </c>
-      <c r="D40" s="11">
-        <v>60</v>
-      </c>
-      <c r="E40" s="11">
-        <v>75</v>
-      </c>
-      <c r="F40" s="11">
-        <v>90</v>
-      </c>
-      <c r="G40" s="11">
-        <v>200</v>
-      </c>
-      <c r="H40" s="11">
-        <v>100</v>
-      </c>
-      <c r="I40" s="11">
-        <v>160</v>
-      </c>
-      <c r="J40" s="12">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A41" s="10">
-        <v>1</v>
-      </c>
-      <c r="B41" s="13">
-        <v>40</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0</v>
-      </c>
-      <c r="D41" s="13">
-        <v>65</v>
-      </c>
-      <c r="E41" s="13">
-        <v>40</v>
-      </c>
-      <c r="F41" s="13">
-        <v>100</v>
-      </c>
-      <c r="G41" s="13">
-        <v>100</v>
-      </c>
-      <c r="H41" s="13">
-        <v>75</v>
-      </c>
-      <c r="I41" s="13">
-        <v>110</v>
-      </c>
-      <c r="J41" s="14">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A42" s="10">
-        <v>2</v>
-      </c>
-      <c r="B42" s="13">
-        <v>60</v>
-      </c>
-      <c r="C42" s="13">
-        <v>65</v>
-      </c>
-      <c r="D42" s="13">
-        <v>0</v>
-      </c>
-      <c r="E42" s="13">
-        <v>75</v>
-      </c>
-      <c r="F42" s="13">
-        <v>100</v>
-      </c>
-      <c r="G42" s="13">
-        <v>100</v>
-      </c>
-      <c r="H42" s="13">
-        <v>75</v>
-      </c>
-      <c r="I42" s="13">
-        <v>75</v>
-      </c>
-      <c r="J42" s="14">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A43" s="10">
-        <v>3</v>
-      </c>
-      <c r="B43" s="13">
-        <v>75</v>
-      </c>
-      <c r="C43" s="13">
-        <v>40</v>
-      </c>
-      <c r="D43" s="13">
-        <v>75</v>
-      </c>
-      <c r="E43" s="13">
-        <v>0</v>
-      </c>
-      <c r="F43" s="13">
-        <v>100</v>
-      </c>
-      <c r="G43" s="13">
-        <v>50</v>
-      </c>
-      <c r="H43" s="13">
-        <v>90</v>
-      </c>
-      <c r="I43" s="13">
-        <v>90</v>
-      </c>
-      <c r="J43" s="14">
-        <v>150</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A44" s="10">
-        <v>4</v>
-      </c>
-      <c r="B44" s="13">
+        <v>0</v>
+      </c>
+      <c r="B44" s="11">
+        <v>0</v>
+      </c>
+      <c r="C44" s="11">
+        <v>40</v>
+      </c>
+      <c r="D44" s="11">
+        <v>60</v>
+      </c>
+      <c r="E44" s="11">
+        <v>75</v>
+      </c>
+      <c r="F44" s="11">
         <v>90</v>
       </c>
-      <c r="C44" s="13">
+      <c r="G44" s="11">
+        <v>200</v>
+      </c>
+      <c r="H44" s="11">
         <v>100</v>
       </c>
-      <c r="D44" s="13">
-        <v>100</v>
-      </c>
-      <c r="E44" s="13">
-        <v>100</v>
-      </c>
-      <c r="F44" s="13">
-        <v>0</v>
-      </c>
-      <c r="G44" s="13">
-        <v>100</v>
-      </c>
-      <c r="H44" s="13">
-        <v>75</v>
-      </c>
-      <c r="I44" s="13">
-        <v>75</v>
-      </c>
-      <c r="J44" s="14">
-        <v>100</v>
+      <c r="I44" s="11">
+        <v>160</v>
+      </c>
+      <c r="J44" s="12">
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A45" s="10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B45" s="13">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="C45" s="13">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D45" s="13">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="E45" s="13">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F45" s="13">
         <v>100</v>
       </c>
       <c r="G45" s="13">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="13">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I45" s="13">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="J45" s="14">
-        <v>75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A46" s="10">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B46" s="13">
+        <v>60</v>
+      </c>
+      <c r="C46" s="13">
+        <v>65</v>
+      </c>
+      <c r="D46" s="13">
+        <v>0</v>
+      </c>
+      <c r="E46" s="13">
+        <v>75</v>
+      </c>
+      <c r="F46" s="13">
         <v>100</v>
       </c>
-      <c r="C46" s="13">
+      <c r="G46" s="13">
+        <v>100</v>
+      </c>
+      <c r="H46" s="13">
         <v>75</v>
       </c>
-      <c r="D46" s="13">
+      <c r="I46" s="13">
         <v>75</v>
       </c>
-      <c r="E46" s="13">
-        <v>90</v>
-      </c>
-      <c r="F46" s="13">
+      <c r="J46" s="14">
         <v>75</v>
-      </c>
-      <c r="G46" s="13">
-        <v>70</v>
-      </c>
-      <c r="H46" s="13">
-        <v>0</v>
-      </c>
-      <c r="I46" s="13">
-        <v>70</v>
-      </c>
-      <c r="J46" s="14">
-        <v>100</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.5">
       <c r="A47" s="10">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B47" s="13">
-        <v>160</v>
+        <v>75</v>
       </c>
       <c r="C47" s="13">
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="D47" s="13">
         <v>75</v>
       </c>
       <c r="E47" s="13">
+        <v>0</v>
+      </c>
+      <c r="F47" s="13">
+        <v>100</v>
+      </c>
+      <c r="G47" s="13">
+        <v>50</v>
+      </c>
+      <c r="H47" s="13">
         <v>90</v>
       </c>
-      <c r="F47" s="13">
+      <c r="I47" s="13">
+        <v>90</v>
+      </c>
+      <c r="J47" s="14">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A48" s="10">
+        <v>4</v>
+      </c>
+      <c r="B48" s="13">
+        <v>90</v>
+      </c>
+      <c r="C48" s="13">
+        <v>100</v>
+      </c>
+      <c r="D48" s="13">
+        <v>100</v>
+      </c>
+      <c r="E48" s="13">
+        <v>100</v>
+      </c>
+      <c r="F48" s="13">
+        <v>0</v>
+      </c>
+      <c r="G48" s="13">
+        <v>100</v>
+      </c>
+      <c r="H48" s="13">
         <v>75</v>
       </c>
-      <c r="G47" s="13">
+      <c r="I48" s="13">
+        <v>75</v>
+      </c>
+      <c r="J48" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A49" s="10">
+        <v>5</v>
+      </c>
+      <c r="B49" s="13">
+        <v>200</v>
+      </c>
+      <c r="C49" s="13">
+        <v>100</v>
+      </c>
+      <c r="D49" s="13">
+        <v>100</v>
+      </c>
+      <c r="E49" s="13">
+        <v>50</v>
+      </c>
+      <c r="F49" s="13">
+        <v>100</v>
+      </c>
+      <c r="G49" s="13">
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <v>70</v>
+      </c>
+      <c r="I49" s="13">
         <v>90</v>
       </c>
-      <c r="H47" s="13">
+      <c r="J49" s="14">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A50" s="10">
+        <v>6</v>
+      </c>
+      <c r="B50" s="13">
+        <v>100</v>
+      </c>
+      <c r="C50" s="13">
+        <v>75</v>
+      </c>
+      <c r="D50" s="13">
+        <v>75</v>
+      </c>
+      <c r="E50" s="13">
+        <v>90</v>
+      </c>
+      <c r="F50" s="13">
+        <v>75</v>
+      </c>
+      <c r="G50" s="13">
         <v>70</v>
       </c>
-      <c r="I47" s="13">
+      <c r="H50" s="13">
         <v>0</v>
       </c>
-      <c r="J47" s="14">
+      <c r="I50" s="13">
+        <v>70</v>
+      </c>
+      <c r="J50" s="14">
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="15">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A51" s="10">
+        <v>7</v>
+      </c>
+      <c r="B51" s="13">
+        <v>160</v>
+      </c>
+      <c r="C51" s="13">
+        <v>110</v>
+      </c>
+      <c r="D51" s="13">
+        <v>75</v>
+      </c>
+      <c r="E51" s="13">
+        <v>90</v>
+      </c>
+      <c r="F51" s="13">
+        <v>75</v>
+      </c>
+      <c r="G51" s="13">
+        <v>90</v>
+      </c>
+      <c r="H51" s="13">
+        <v>70</v>
+      </c>
+      <c r="I51" s="13">
+        <v>0</v>
+      </c>
+      <c r="J51" s="14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="15">
         <v>8</v>
       </c>
-      <c r="B48" s="16">
+      <c r="B52" s="16">
         <v>80</v>
       </c>
-      <c r="C48" s="16">
+      <c r="C52" s="16">
         <v>100</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D52" s="16">
         <v>75</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E52" s="16">
         <v>150</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F52" s="16">
         <v>100</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G52" s="16">
         <v>100</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H52" s="16">
         <v>100</v>
       </c>
-      <c r="I48" s="16">
+      <c r="I52" s="16">
         <v>100</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J52" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="6.55" customHeight="1" x14ac:dyDescent="0.5"/>
+    <row r="54" spans="1:10" ht="6.55" customHeight="1" x14ac:dyDescent="0.5"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
